--- a/docs/Legal Questionnaire.xlsx
+++ b/docs/Legal Questionnaire.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26215"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tuhoang/projects/private-policy/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Collecting" sheetId="1" r:id="rId1"/>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="110">
   <si>
     <t>Contacts</t>
   </si>
@@ -433,6 +438,18 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>We use your phone number to register account and contact when you use the application.</t>
+  </si>
+  <si>
+    <t>We use your current location to show nearby restaurant &amp; coffee shop and enable ordering feature.</t>
   </si>
 </sst>
 </file>
@@ -1024,16 +1041,16 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1048,9 +1065,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1060,13 +1074,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1183,6 +1200,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1511,9 +1533,11 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="27" style="36" customWidth="1"/>
@@ -1526,7 +1550,7 @@
     <col min="9" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40" customHeight="1">
+    <row r="1" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1536,7 +1560,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="34" customHeight="1">
+    <row r="2" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="72" t="s">
         <v>51</v>
@@ -1548,7 +1572,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" s="29" customFormat="1" ht="39" customHeight="1">
+    <row r="3" spans="1:8" s="29" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="73" t="s">
         <v>95</v>
@@ -1560,7 +1584,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="25" customHeight="1">
+    <row r="4" spans="1:8" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="73" t="s">
         <v>92</v>
@@ -1572,7 +1596,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" s="29" customFormat="1" ht="25" customHeight="1">
+    <row r="5" spans="1:8" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="73" t="s">
         <v>94</v>
@@ -1584,7 +1608,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="28" customHeight="1">
+    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="74"/>
       <c r="C6" s="74"/>
@@ -1594,13 +1618,13 @@
       <c r="G6" s="74"/>
       <c r="H6" s="75"/>
     </row>
-    <row r="7" spans="1:8" ht="37" customHeight="1">
+    <row r="7" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
         <v>89</v>
@@ -1610,7 +1634,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="37" customHeight="1">
+    <row r="8" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
         <v>64</v>
@@ -1628,19 +1652,19 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" customHeight="1">
+    <row r="9" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" s="30" customFormat="1" ht="97" customHeight="1">
+    <row r="10" spans="1:8" s="30" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46"/>
       <c r="B10" s="16" t="s">
         <v>63</v>
@@ -1654,7 +1678,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:8" s="30" customFormat="1" ht="16">
+    <row r="11" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="47"/>
       <c r="B11" s="3" t="s">
         <v>1</v>
@@ -1664,11 +1688,15 @@
         <v>0</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="79"/>
-    </row>
-    <row r="12" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H11" s="78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -1678,11 +1706,13 @@
         <v>3</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="69"/>
-    </row>
-    <row r="13" spans="1:8" s="31" customFormat="1">
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="47"/>
       <c r="B13" s="3" t="s">
         <v>4</v>
@@ -1692,11 +1722,13 @@
         <v>5</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="69"/>
-    </row>
-    <row r="14" spans="1:8" s="31" customFormat="1" ht="24" customHeight="1">
+      <c r="H13" s="79"/>
+    </row>
+    <row r="14" spans="1:8" s="31" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
@@ -1706,11 +1738,13 @@
         <v>7</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="69"/>
-    </row>
-    <row r="15" spans="1:8" s="31" customFormat="1">
+      <c r="H14" s="79"/>
+    </row>
+    <row r="15" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>8</v>
@@ -1720,11 +1754,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="69"/>
-    </row>
-    <row r="16" spans="1:8" s="31" customFormat="1">
+      <c r="H15" s="79"/>
+    </row>
+    <row r="16" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -1734,23 +1770,25 @@
         <v>11</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="69"/>
-    </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
+      <c r="H16" s="79"/>
+    </row>
+    <row r="17" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" s="31" customFormat="1" ht="44" customHeight="1">
+    <row r="18" spans="1:8" s="31" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="46"/>
       <c r="B18" s="16" t="s">
         <v>53</v>
@@ -1764,7 +1802,7 @@
       <c r="G18" s="16"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" s="30" customFormat="1" ht="30">
+    <row r="19" spans="1:8" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="4" t="s">
         <v>12</v>
@@ -1774,11 +1812,13 @@
         <v>13</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G19" s="4"/>
-      <c r="H19" s="71"/>
-    </row>
-    <row r="20" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H19" s="82"/>
+    </row>
+    <row r="20" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="4" t="s">
         <v>14</v>
@@ -1788,23 +1828,25 @@
         <v>15</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G20" s="4"/>
-      <c r="H20" s="69"/>
-    </row>
-    <row r="21" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
+      <c r="H20" s="79"/>
+    </row>
+    <row r="21" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" s="31" customFormat="1" ht="32" customHeight="1">
+    <row r="22" spans="1:8" s="31" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="46"/>
       <c r="B22" s="16" t="s">
         <v>17</v>
@@ -1818,7 +1860,7 @@
       <c r="G22" s="16"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" s="30" customFormat="1" ht="16">
+    <row r="23" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="48"/>
       <c r="B23" s="4" t="s">
         <v>17</v>
@@ -1828,23 +1870,25 @@
         <v>16</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="32"/>
     </row>
-    <row r="24" spans="1:8" s="33" customFormat="1" ht="29" customHeight="1">
+    <row r="24" spans="1:8" s="33" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="49"/>
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" ht="66" customHeight="1">
+    <row r="25" spans="1:8" s="31" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="46"/>
       <c r="B25" s="16" t="s">
         <v>55</v>
@@ -1858,45 +1902,51 @@
       <c r="G25" s="16"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="1:8" s="30" customFormat="1" ht="30">
+    <row r="26" spans="1:8" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="48"/>
       <c r="B26" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="81" t="s">
+      <c r="D26" s="70" t="s">
         <v>105</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G26" s="4"/>
-      <c r="H26" s="71"/>
-    </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H26" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="48"/>
       <c r="B27" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="82"/>
+      <c r="D27" s="71"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>106</v>
+      </c>
       <c r="G27" s="4"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
+      <c r="H27" s="79"/>
+    </row>
+    <row r="28" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="49"/>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
       <c r="E28" s="51"/>
       <c r="F28" s="51"/>
       <c r="G28" s="51"/>
       <c r="H28" s="19"/>
     </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" ht="85" customHeight="1">
+    <row r="29" spans="1:8" s="31" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="46"/>
       <c r="B29" s="16" t="s">
         <v>56</v>
@@ -1910,7 +1960,7 @@
       <c r="G29" s="16"/>
       <c r="H29" s="24"/>
     </row>
-    <row r="30" spans="1:8" s="30" customFormat="1" ht="30">
+    <row r="30" spans="1:8" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="48"/>
       <c r="B30" s="4" t="s">
         <v>20</v>
@@ -1920,11 +1970,13 @@
         <v>21</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G30" s="4"/>
-      <c r="H30" s="71"/>
-    </row>
-    <row r="31" spans="1:8" s="31" customFormat="1">
+      <c r="H30" s="82"/>
+    </row>
+    <row r="31" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="48"/>
       <c r="B31" s="4" t="s">
         <v>22</v>
@@ -1934,11 +1986,13 @@
         <v>22</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="F31" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G31" s="4"/>
-      <c r="H31" s="69"/>
-    </row>
-    <row r="32" spans="1:8" s="31" customFormat="1">
+      <c r="H31" s="79"/>
+    </row>
+    <row r="32" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="48"/>
       <c r="B32" s="4" t="s">
         <v>23</v>
@@ -1948,11 +2002,13 @@
         <v>23</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="F32" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G32" s="4"/>
-      <c r="H32" s="69"/>
-    </row>
-    <row r="33" spans="1:8" s="31" customFormat="1">
+      <c r="H32" s="79"/>
+    </row>
+    <row r="33" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="48"/>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -1962,23 +2018,25 @@
         <v>24</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G33" s="4"/>
-      <c r="H33" s="69"/>
-    </row>
-    <row r="34" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
+      <c r="H33" s="79"/>
+    </row>
+    <row r="34" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="49"/>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" s="31" customFormat="1" ht="86" customHeight="1">
+    <row r="35" spans="1:8" s="31" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="52"/>
       <c r="B35" s="21" t="s">
         <v>58</v>
@@ -1992,7 +2050,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="25"/>
     </row>
-    <row r="36" spans="1:8" s="30" customFormat="1" ht="16">
+    <row r="36" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="48"/>
       <c r="B36" s="4" t="s">
         <v>25</v>
@@ -2002,11 +2060,13 @@
         <v>26</v>
       </c>
       <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
+      <c r="F36" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G36" s="4"/>
-      <c r="H36" s="71"/>
-    </row>
-    <row r="37" spans="1:8" s="31" customFormat="1">
+      <c r="H36" s="82"/>
+    </row>
+    <row r="37" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="48"/>
       <c r="B37" s="4" t="s">
         <v>27</v>
@@ -2016,11 +2076,13 @@
         <v>28</v>
       </c>
       <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G37" s="4"/>
-      <c r="H37" s="69"/>
-    </row>
-    <row r="38" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H37" s="79"/>
+    </row>
+    <row r="38" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="48"/>
       <c r="B38" s="4" t="s">
         <v>29</v>
@@ -2030,11 +2092,13 @@
         <v>30</v>
       </c>
       <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G38" s="4"/>
-      <c r="H38" s="69"/>
-    </row>
-    <row r="39" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H38" s="79"/>
+    </row>
+    <row r="39" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="48"/>
       <c r="B39" s="4" t="s">
         <v>31</v>
@@ -2044,23 +2108,25 @@
         <v>32</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="F39" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G39" s="4"/>
-      <c r="H39" s="69"/>
-    </row>
-    <row r="40" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
+      <c r="H39" s="79"/>
+    </row>
+    <row r="40" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="49"/>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
+      <c r="C40" s="68"/>
+      <c r="D40" s="68"/>
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
       <c r="H40" s="18"/>
     </row>
-    <row r="41" spans="1:8" s="31" customFormat="1" ht="85" customHeight="1">
+    <row r="41" spans="1:8" s="31" customFormat="1" ht="85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="52"/>
       <c r="B41" s="21" t="s">
         <v>59</v>
@@ -2074,7 +2140,7 @@
       <c r="G41" s="21"/>
       <c r="H41" s="25"/>
     </row>
-    <row r="42" spans="1:8" s="34" customFormat="1" ht="16">
+    <row r="42" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="48"/>
       <c r="B42" s="4" t="s">
         <v>33</v>
@@ -2084,11 +2150,13 @@
         <v>34</v>
       </c>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G42" s="4"/>
-      <c r="H42" s="71"/>
-    </row>
-    <row r="43" spans="1:8" s="31" customFormat="1">
+      <c r="H42" s="82"/>
+    </row>
+    <row r="43" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="48"/>
       <c r="B43" s="4" t="s">
         <v>35</v>
@@ -2098,11 +2166,13 @@
         <v>35</v>
       </c>
       <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
+      <c r="F43" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G43" s="4"/>
-      <c r="H43" s="69"/>
-    </row>
-    <row r="44" spans="1:8" s="31" customFormat="1">
+      <c r="H43" s="79"/>
+    </row>
+    <row r="44" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="48"/>
       <c r="B44" s="4" t="s">
         <v>36</v>
@@ -2112,11 +2182,13 @@
         <v>36</v>
       </c>
       <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="F44" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G44" s="4"/>
-      <c r="H44" s="69"/>
-    </row>
-    <row r="45" spans="1:8" s="31" customFormat="1">
+      <c r="H44" s="79"/>
+    </row>
+    <row r="45" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="48"/>
       <c r="B45" s="4" t="s">
         <v>37</v>
@@ -2126,11 +2198,13 @@
         <v>37</v>
       </c>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G45" s="4"/>
-      <c r="H45" s="69"/>
-    </row>
-    <row r="46" spans="1:8" s="31" customFormat="1">
+      <c r="H45" s="79"/>
+    </row>
+    <row r="46" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="48"/>
       <c r="B46" s="4" t="s">
         <v>38</v>
@@ -2140,23 +2214,25 @@
         <v>38</v>
       </c>
       <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="F46" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G46" s="4"/>
-      <c r="H46" s="69"/>
-    </row>
-    <row r="47" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1">
+      <c r="H46" s="79"/>
+    </row>
+    <row r="47" spans="1:8" s="31" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="49"/>
-      <c r="B47" s="80" t="s">
+      <c r="B47" s="68" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
       <c r="H47" s="18"/>
     </row>
-    <row r="48" spans="1:8" s="31" customFormat="1" ht="70" customHeight="1">
+    <row r="48" spans="1:8" s="31" customFormat="1" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="21" t="s">
         <v>61</v>
@@ -2170,7 +2246,7 @@
       <c r="G48" s="21"/>
       <c r="H48" s="25"/>
     </row>
-    <row r="49" spans="1:8" s="30" customFormat="1" ht="16">
+    <row r="49" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="48"/>
       <c r="B49" s="4" t="s">
         <v>39</v>
@@ -2180,11 +2256,13 @@
         <v>39</v>
       </c>
       <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="68"/>
-    </row>
-    <row r="50" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H49" s="80"/>
+    </row>
+    <row r="50" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="48"/>
       <c r="B50" s="4" t="s">
         <v>40</v>
@@ -2194,11 +2272,13 @@
         <v>41</v>
       </c>
       <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="F50" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="69"/>
-    </row>
-    <row r="51" spans="1:8" s="31" customFormat="1" ht="30">
+      <c r="H50" s="79"/>
+    </row>
+    <row r="51" spans="1:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
       <c r="B51" s="4" t="s">
         <v>42</v>
@@ -2208,11 +2288,13 @@
         <v>43</v>
       </c>
       <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="F51" s="4" t="s">
+        <v>107</v>
+      </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="69"/>
-    </row>
-    <row r="52" spans="1:8" s="31" customFormat="1">
+      <c r="H51" s="79"/>
+    </row>
+    <row r="52" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
@@ -2220,9 +2302,9 @@
       <c r="E52" s="35"/>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
-      <c r="H52" s="70"/>
-    </row>
-    <row r="53" spans="1:8" s="31" customFormat="1" ht="44" customHeight="1">
+      <c r="H52" s="81"/>
+    </row>
+    <row r="53" spans="1:8" s="31" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="28"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2232,16 +2314,15 @@
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
     </row>
-    <row r="54" spans="1:8" ht="48" customHeight="1"/>
+    <row r="54" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="H49:H52"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H42:H46"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:H6"/>
@@ -2251,12 +2332,13 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="H11:H16"/>
-    <mergeCell ref="H49:H52"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H42:H46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2267,11 +2349,6 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2283,7 +2360,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="27" style="23" customWidth="1"/>
@@ -2296,7 +2373,7 @@
     <col min="9" max="16384" width="10.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39" customHeight="1">
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="37"/>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -2306,7 +2383,7 @@
       <c r="G1" s="39"/>
       <c r="H1" s="40"/>
     </row>
-    <row r="2" spans="1:8" ht="36">
+    <row r="2" spans="1:8" ht="37" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
       <c r="B2" s="72" t="s">
         <v>66</v>
@@ -2318,7 +2395,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="36">
+    <row r="3" spans="1:8" ht="37" x14ac:dyDescent="0.2">
       <c r="A3" s="42"/>
       <c r="B3" s="73" t="s">
         <v>95</v>
@@ -2330,7 +2407,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="34" customHeight="1">
+    <row r="4" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="42"/>
       <c r="B4" s="73" t="s">
         <v>96</v>
@@ -2342,7 +2419,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="29" customHeight="1">
+    <row r="5" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="73" t="s">
         <v>98</v>
@@ -2354,7 +2431,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="74"/>
       <c r="C6" s="74"/>
@@ -2364,13 +2441,13 @@
       <c r="G6" s="74"/>
       <c r="H6" s="75"/>
     </row>
-    <row r="7" spans="1:8" ht="35" customHeight="1">
+    <row r="7" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="43"/>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11" t="s">
         <v>97</v>
@@ -2380,7 +2457,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="27" customHeight="1">
+    <row r="8" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="44"/>
       <c r="B8" s="8" t="s">
         <v>64</v>
@@ -2398,7 +2475,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="29" customHeight="1">
+    <row r="9" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="45"/>
       <c r="B9" s="13" t="s">
         <v>67</v>
@@ -2410,7 +2487,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="1:8" ht="30">
+    <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="60"/>
       <c r="B10" s="3" t="s">
         <v>78</v>
@@ -2424,7 +2501,7 @@
       <c r="G10" s="55"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:8" ht="29" customHeight="1">
+    <row r="11" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="67"/>
       <c r="B11" s="13" t="s">
         <v>68</v>
@@ -2436,7 +2513,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="60">
+    <row r="12" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="47"/>
       <c r="B12" s="3" t="s">
         <v>79</v>
@@ -2450,7 +2527,7 @@
       <c r="G12" s="55"/>
       <c r="H12" s="56"/>
     </row>
-    <row r="13" spans="1:8" ht="29" customHeight="1">
+    <row r="13" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="67"/>
       <c r="B13" s="13" t="s">
         <v>69</v>
@@ -2462,7 +2539,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="30">
+    <row r="14" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="47"/>
       <c r="B14" s="3" t="s">
         <v>80</v>
@@ -2476,7 +2553,7 @@
       <c r="G14" s="55"/>
       <c r="H14" s="56"/>
     </row>
-    <row r="15" spans="1:8" ht="38" customHeight="1">
+    <row r="15" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="67"/>
       <c r="B15" s="54" t="s">
         <v>70</v>
@@ -2490,7 +2567,7 @@
       <c r="G15" s="50"/>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="1:8" ht="90">
+    <row r="16" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>82</v>
@@ -2504,7 +2581,7 @@
       <c r="G16" s="55"/>
       <c r="H16" s="56"/>
     </row>
-    <row r="17" spans="1:8" ht="37" customHeight="1">
+    <row r="17" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="45"/>
       <c r="B17" s="54" t="s">
         <v>72</v>
@@ -2518,7 +2595,7 @@
       <c r="G17" s="51"/>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="30">
+    <row r="18" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="60"/>
       <c r="B18" s="3" t="s">
         <v>83</v>
@@ -2532,7 +2609,7 @@
       <c r="G18" s="55"/>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:8" ht="37" customHeight="1">
+    <row r="19" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="66"/>
       <c r="B19" s="54" t="s">
         <v>74</v>
@@ -2546,7 +2623,7 @@
       <c r="G19" s="50"/>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="1:8" ht="90">
+    <row r="20" spans="1:8" ht="96" x14ac:dyDescent="0.2">
       <c r="A20" s="48"/>
       <c r="B20" s="3" t="s">
         <v>104</v>
@@ -2560,7 +2637,7 @@
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
     </row>
-    <row r="21" spans="1:8" ht="29" customHeight="1">
+    <row r="21" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="45"/>
       <c r="B21" s="54" t="s">
         <v>76</v>
@@ -2572,7 +2649,7 @@
       <c r="G21" s="50"/>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="1:8" ht="45">
+    <row r="22" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="61"/>
       <c r="B22" s="3" t="s">
         <v>84</v>
@@ -2586,7 +2663,7 @@
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
     </row>
-    <row r="23" spans="1:8" ht="29" customHeight="1">
+    <row r="23" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65"/>
       <c r="B23" s="54" t="s">
         <v>77</v>
@@ -2598,7 +2675,7 @@
       <c r="G23" s="50"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" ht="60">
+    <row r="24" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A24" s="64"/>
       <c r="B24" s="57" t="s">
         <v>85</v>
@@ -2612,7 +2689,7 @@
       <c r="G24" s="58"/>
       <c r="H24" s="59"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="61"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -2622,7 +2699,7 @@
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="62"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -2632,82 +2709,82 @@
       <c r="G26" s="26"/>
       <c r="H26" s="26"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="62"/>
     </row>
-    <row r="28" spans="1:8" ht="16">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="63"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="61"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="62"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="62"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="62"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="62"/>
     </row>
-    <row r="34" spans="1:1" ht="16">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="63"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="61"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="62"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="62"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="62"/>
     </row>
-    <row r="40" spans="1:1" ht="16">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="63"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="61"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="62"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="62"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="62"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="62"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="62"/>
     </row>
-    <row r="47" spans="1:1" ht="16">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="63"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="61"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="62"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="62"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="48"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="53"/>
     </row>
   </sheetData>
@@ -2728,10 +2805,5 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>